--- a/exported_purchase_orders.xlsx
+++ b/exported_purchase_orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>TOTAL AMOUNT</t>
+          <t>TOTAL AMOUNT(€)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -591,34 +591,34 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>allocation</t>
+          <t>date</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Sub-allocation</t>
+          <t>Arrival_Date</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Allocation</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Sub_allocation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -638,22 +638,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -664,22 +664,22 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>123123</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1111111</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>123123123</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>safdasdf</t>
+          <t>aaaaaaaaaaaaaaaaaa</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -710,15 +710,11 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>300.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -728,24 +724,1091 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2024-10-17 13:59:49</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>2024-10-14 16:29:52</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>update</t>
-        </is>
-      </c>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Offer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Filips</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:17:50</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Offer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Filips</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:17:36</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Offer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Filips</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>642.64</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>642.64</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>608.38</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>608.38</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>2024-10-16 08:58:38</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Offer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Filips</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>642.64</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>642.64</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>608.38</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>608.38</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>2024-10-16 08:58:32</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Offer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Filips</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>642.64</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>642.64</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>608.38</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>608.38</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>2024-10-16 08:58:53</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Offer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Filips</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>642.64</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>642.64</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>608.38</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>608.38</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>2024-10-16 08:58:49</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Offer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Filips</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>642.64</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>642.64</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>608.38</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>608.38</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>2024-10-16 08:58:42</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
